--- a/Tratamento/src/Dados_limpos/novos/limpo_petz_20251114_201600.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petz_20251114_201600.xlsx
@@ -4497,7 +4497,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -4879,7 +4879,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -5327,7 +5327,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5783,7 +5783,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5939,7 +5939,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
